--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,577 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-04-12 22:39:10</t>
+          <t>2024-04-13 01:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6089744035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kamolashakarova_manager</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Камола</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>998990556028</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-04-13 06:06:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5939284808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GavkharSagdullaeva</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Roziman✅</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>998990398836</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-04-13 22:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>279819568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Shoira2202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Шоира</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>998979904559</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-04-16 19:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6792780193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dildora199826</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>To‘lahanova Dildora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>998947229498</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-04-19 13:16:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6872123714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Laylo0_2208</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>𝐋𝐚𝐲𝐥𝐨</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>998888032208</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-04-21 17:16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>796040791</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>javoxirsuyunov</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Javohir</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+998945155078</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-04-23 12:18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6390910190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Islom4212</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bvcg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>998885244212</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-04-25 19:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>329495860</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Error_username_q1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umid</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>998998710719</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-04-26 06:05:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>281718231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ShakarovaKamola_psixolog</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Камола</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>998977298928</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-04-27 08:34:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5625816750</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ozodbek_Ernazarov</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ozodbek</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+998931426642</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-04-29 16:40:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>656822397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Shaxrimedova</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Shaxrizoda</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>998935244143</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:03:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1264489989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Khujanafasov</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Muhammad Amin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>998978020249</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-11 22:02:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6400732828</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ozoodbeek</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>998505521304</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-26 15:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5083914920</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bekzodcs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bekzod</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>998918072087</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-28 10:41:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6556585295</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fayzullayev_q</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>998938332977</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-13 19:46:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6642693329</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RICHY_UZ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Huu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>998914006372</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-07-20 23:42:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5160893132</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>azizbek_freelancer01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Азизбек</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+998990069769</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-08-09 21:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5940640383</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Jizpi2021</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://t.me/+B7Rpp0cjoK4zNTIy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>998940302907</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-08-10 13:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5589013665</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ozodbek_Ernazarov1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ozodbek</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>+998943426642</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:45:06</t>
         </is>
       </c>
     </row>
